--- a/findbyfilewebelement/src/test/resources/excel/MultipleAccessData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/MultipleAccessData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2190" windowWidth="15315" windowHeight="6750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="13455" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/findbyfilewebelement/src/test/resources/excel/MultipleAccessData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/MultipleAccessData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2190" windowWidth="13455" windowHeight="6750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="14925" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>file.pagefactory.MultipleThreadCacheTest$PageObjectExcel</t>
-  </si>
-  <si>
     <t>element1</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>element2</t>
+  </si>
+  <si>
+    <t>file.pagefactory.ThreadingTest$PageObjectExcel</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,30 +414,30 @@
     </row>
     <row r="2" spans="1:4" customFormat="1">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
